--- a/Python Working Notebooks/Production Tank Model results in Excel format/22MT Excel Results/Overall 22MT/22resultsa.xlsx
+++ b/Python Working Notebooks/Production Tank Model results in Excel format/22MT Excel Results/Overall 22MT/22resultsa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Thesis 2023\Capstone---CCT\Python Working Notebooks\Production Tank Model results in Excel format\22MT Excel Results\Overall 22MT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F73A2A-2B10-4CC5-A762-783E1A2FE010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2758999-881C-4459-9E3A-3710AA5023C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Results" sheetId="1" r:id="rId1"/>
@@ -1477,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA83760-60F4-4D96-9767-6ED708B0DF8A}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2470,7 +2470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B63323-CF05-465E-85B7-43906245066D}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
